--- a/Data/Energievraag_en_isolatiekosten_VestaMAIS.xlsx
+++ b/Data/Energievraag_en_isolatiekosten_VestaMAIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Brabant-buurt-serious-game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB2941D-D098-4E94-B517-02A40E22365D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9082D33-7425-49D6-A687-3A6504FB0E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{CF973C2D-D89C-4C44-B49D-254920044BF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{CF973C2D-D89C-4C44-B49D-254920044BF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info woningen" sheetId="2" r:id="rId1"/>
@@ -978,16 +978,16 @@
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>138</v>
       </c>
@@ -995,7 +995,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>144</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>7</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>8</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>9</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>12</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>13</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>14</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>16</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>17</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>18</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>19</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>20</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>21</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>22</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>23</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>24</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>25</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>26</v>
       </c>
@@ -1363,27 +1363,27 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>27</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>28</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>29</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>30</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>31</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>32</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>33</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>34</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>35</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>36</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>37</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>38</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>39</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>40</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>41</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>42</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>43</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>44</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>45</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>46</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>47</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>48</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>49</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>50</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>51</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>52</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>53</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>54</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>55</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>56</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>57</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>58</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>59</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>60</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>61</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>62</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>63</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>64</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>65</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>66</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>67</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>68</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>69</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>70</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>71</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>72</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>73</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>74</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>75</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>76</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>77</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>78</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>79</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>80</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>81</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>82</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>83</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>84</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>85</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>86</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>87</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>88</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>89</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>90</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>91</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>92</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>93</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>94</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>95</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>96</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>97</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>98</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>99</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>100</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>101</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>102</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>103</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>104</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>105</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>106</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>107</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>108</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>109</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>110</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>111</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>112</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>113</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>114</v>
       </c>
@@ -2351,22 +2351,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>184</v>
       </c>
@@ -2381,20 +2381,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44F6C96-E81A-435C-A4E3-661707593902}">
   <dimension ref="A1:DN73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="CM2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:C1048576"/>
+      <selection pane="bottomRight" activeCell="AE30" sqref="AE30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>148.1593589</v>
       </c>
     </row>
-    <row r="3" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>148.1593589</v>
       </c>
     </row>
-    <row r="4" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -3578,19 +3578,19 @@
         <v>67.266999999999996</v>
       </c>
       <c r="AM4">
-        <v>413.29</v>
+        <v>2616.8560000000002</v>
       </c>
       <c r="AN4">
-        <v>34.536000000000001</v>
+        <v>28.504999999999999</v>
       </c>
       <c r="AO4">
-        <v>716.86599999999999</v>
+        <v>2653.2280000000001</v>
       </c>
       <c r="AP4">
-        <v>49.661000000000001</v>
+        <v>49.865000000000002</v>
       </c>
       <c r="AQ4">
-        <v>-427.04899999999998</v>
+        <v>4205</v>
       </c>
       <c r="AR4">
         <v>21.588999999999999</v>
@@ -3818,7 +3818,7 @@
         <v>296.258127</v>
       </c>
     </row>
-    <row r="5" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>254.71797000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>159.51643129999999</v>
       </c>
     </row>
-    <row r="7" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>184.69736349999999</v>
       </c>
     </row>
-    <row r="8" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>184.69736349999999</v>
       </c>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>184.69736349999999</v>
       </c>
     </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>115</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>132</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>183.8722909</v>
       </c>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>132</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>183.8722909</v>
       </c>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>132</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>146.1262495</v>
       </c>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>132</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>64.515701440000001</v>
       </c>
     </row>
-    <row r="17" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>148.43342100000001</v>
       </c>
     </row>
-    <row r="18" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>171.0844266</v>
       </c>
     </row>
-    <row r="19" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>171.0844266</v>
       </c>
     </row>
-    <row r="20" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>171.0844266</v>
       </c>
     </row>
-    <row r="21" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>132</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>106.1962305</v>
       </c>
     </row>
-    <row r="25" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>134</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>106.1962305</v>
       </c>
     </row>
-    <row r="26" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -11650,7 +11650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>132.6758816</v>
       </c>
     </row>
-    <row r="28" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>158.19158469999999</v>
       </c>
     </row>
-    <row r="29" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>423.40359169999999</v>
       </c>
     </row>
-    <row r="30" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -13074,7 +13074,7 @@
         <v>423.40359169999999</v>
       </c>
     </row>
-    <row r="31" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>423.40359169999999</v>
       </c>
     </row>
-    <row r="32" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>134</v>
       </c>
@@ -13786,7 +13786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>134</v>
       </c>
@@ -14142,7 +14142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>134</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>135</v>
       </c>
@@ -14854,7 +14854,7 @@
         <v>134.44936860000001</v>
       </c>
     </row>
-    <row r="36" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>135</v>
       </c>
@@ -15210,7 +15210,7 @@
         <v>134.44936860000001</v>
       </c>
     </row>
-    <row r="37" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>135</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>7.9638583519999999</v>
       </c>
     </row>
-    <row r="38" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>135</v>
       </c>
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>135</v>
       </c>
@@ -16278,7 +16278,7 @@
         <v>178.17266979999999</v>
       </c>
     </row>
-    <row r="40" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>135</v>
       </c>
@@ -16634,7 +16634,7 @@
         <v>219.13361449999999</v>
       </c>
     </row>
-    <row r="41" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>135</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>219.13361449999999</v>
       </c>
     </row>
-    <row r="42" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -17346,7 +17346,7 @@
         <v>219.13361449999999</v>
       </c>
     </row>
-    <row r="43" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>135</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>135</v>
       </c>
@@ -18058,7 +18058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>135</v>
       </c>
@@ -18414,7 +18414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -18770,7 +18770,7 @@
         <v>112.7006753</v>
       </c>
     </row>
-    <row r="47" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>136</v>
       </c>
@@ -19126,7 +19126,7 @@
         <v>112.7006753</v>
       </c>
     </row>
-    <row r="48" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -19482,7 +19482,7 @@
         <v>289.51567640000002</v>
       </c>
     </row>
-    <row r="49" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -19838,7 +19838,7 @@
         <v>198.08947019999999</v>
       </c>
     </row>
-    <row r="50" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>136</v>
       </c>
@@ -20194,7 +20194,7 @@
         <v>96.90940449</v>
       </c>
     </row>
-    <row r="51" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -20550,7 +20550,7 @@
         <v>236.17647410000001</v>
       </c>
     </row>
-    <row r="52" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>136</v>
       </c>
@@ -20906,7 +20906,7 @@
         <v>236.17647410000001</v>
       </c>
     </row>
-    <row r="53" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>136</v>
       </c>
@@ -21262,7 +21262,7 @@
         <v>236.17647410000001</v>
       </c>
     </row>
-    <row r="54" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>136</v>
       </c>
@@ -21618,7 +21618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>136</v>
       </c>
@@ -21974,7 +21974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>136</v>
       </c>
@@ -22330,7 +22330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>137</v>
       </c>
@@ -22686,7 +22686,7 @@
         <v>87.151266870000001</v>
       </c>
     </row>
-    <row r="58" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>137</v>
       </c>
@@ -23042,7 +23042,7 @@
         <v>87.151266870000001</v>
       </c>
     </row>
-    <row r="59" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>137</v>
       </c>
@@ -23398,7 +23398,7 @@
         <v>234.69040319999999</v>
       </c>
     </row>
-    <row r="60" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>137</v>
       </c>
@@ -23754,7 +23754,7 @@
         <v>153.4984566</v>
       </c>
     </row>
-    <row r="61" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>137</v>
       </c>
@@ -24110,7 +24110,7 @@
         <v>77.523279340000002</v>
       </c>
     </row>
-    <row r="62" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>137</v>
       </c>
@@ -24466,7 +24466,7 @@
         <v>202.74829869999999</v>
       </c>
     </row>
-    <row r="63" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>137</v>
       </c>
@@ -24822,7 +24822,7 @@
         <v>202.74829869999999</v>
       </c>
     </row>
-    <row r="64" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>137</v>
       </c>
@@ -25178,7 +25178,7 @@
         <v>202.74829869999999</v>
       </c>
     </row>
-    <row r="65" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>137</v>
       </c>
@@ -25534,7 +25534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>137</v>
       </c>
@@ -25890,7 +25890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>137</v>
       </c>
@@ -26246,7 +26246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:118" x14ac:dyDescent="0.3">
       <c r="O73" s="1"/>
     </row>
   </sheetData>
@@ -26258,13 +26258,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDE8480-EBD6-4048-9EC7-0E79A83AAAC1}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>138</v>
       </c>
@@ -26272,7 +26272,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -26280,7 +26280,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>144</v>
       </c>
@@ -26288,7 +26288,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -26296,7 +26296,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -26317,9 +26317,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26534,7 +26534,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>148</v>
       </c>
@@ -26749,7 +26749,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -26964,7 +26964,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -27179,7 +27179,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>148</v>
       </c>
@@ -27394,7 +27394,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>148</v>
       </c>
@@ -27609,7 +27609,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -27824,7 +27824,7 @@
         <v>176.97579999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -28039,7 +28039,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -28254,7 +28254,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -28469,7 +28469,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>156</v>
       </c>
@@ -28684,7 +28684,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -28899,7 +28899,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>156</v>
       </c>
@@ -29114,7 +29114,7 @@
         <v>215.02430000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>157</v>
       </c>
@@ -29329,7 +29329,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -29544,7 +29544,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>157</v>
       </c>
@@ -29759,7 +29759,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>157</v>
       </c>
@@ -29974,7 +29974,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>157</v>
       </c>
@@ -30189,7 +30189,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>157</v>
       </c>
@@ -30404,7 +30404,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>158</v>
       </c>
@@ -30619,7 +30619,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>158</v>
       </c>
@@ -30834,7 +30834,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>158</v>
       </c>
@@ -31049,7 +31049,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>158</v>
       </c>
@@ -31264,7 +31264,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>158</v>
       </c>
@@ -31479,7 +31479,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -31694,7 +31694,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -31909,7 +31909,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>159</v>
       </c>
@@ -32124,7 +32124,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>159</v>
       </c>
@@ -32339,7 +32339,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>159</v>
       </c>
@@ -32554,7 +32554,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>159</v>
       </c>
@@ -32769,7 +32769,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>159</v>
       </c>
@@ -32984,7 +32984,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -33199,7 +33199,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -33414,7 +33414,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -33629,7 +33629,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>160</v>
       </c>
@@ -33844,7 +33844,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -34059,7 +34059,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>160</v>
       </c>
@@ -34274,7 +34274,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -34489,7 +34489,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -34704,7 +34704,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="40" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -34919,7 +34919,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>161</v>
       </c>
@@ -35134,7 +35134,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -35349,7 +35349,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -35564,7 +35564,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>162</v>
       </c>
@@ -35779,7 +35779,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="45" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>162</v>
       </c>
@@ -35994,7 +35994,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="46" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>162</v>
       </c>
@@ -36209,7 +36209,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="47" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -36424,7 +36424,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="48" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>162</v>
       </c>
@@ -36639,7 +36639,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="49" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>162</v>
       </c>
@@ -36854,7 +36854,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="50" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>163</v>
       </c>
@@ -37069,7 +37069,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>163</v>
       </c>
@@ -37284,7 +37284,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>163</v>
       </c>
@@ -37499,7 +37499,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>163</v>
       </c>
@@ -37714,7 +37714,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>163</v>
       </c>
@@ -37929,7 +37929,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>163</v>
       </c>
@@ -38144,7 +38144,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="56" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>164</v>
       </c>
@@ -38359,7 +38359,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="57" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>164</v>
       </c>
@@ -38574,7 +38574,7 @@
         <v>196.0513</v>
       </c>
     </row>
-    <row r="58" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>164</v>
       </c>
@@ -38789,7 +38789,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>164</v>
       </c>
@@ -39004,7 +39004,7 @@
         <v>196.0513</v>
       </c>
     </row>
-    <row r="60" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>164</v>
       </c>
@@ -39219,7 +39219,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="61" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>164</v>
       </c>
